--- a/src/main/resources/carros.xlsx
+++ b/src/main/resources/carros.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="95">
   <si>
     <t>Modelo</t>
   </si>
@@ -154,7 +154,7 @@
     <t>sedã</t>
   </si>
   <si>
-    <t>Híbrido Leve</t>
+    <t>Híbrido leve</t>
   </si>
   <si>
     <t>Importado</t>
@@ -172,9 +172,6 @@
     <t>suv</t>
   </si>
   <si>
-    <t>Élétrica</t>
-  </si>
-  <si>
     <t>Cherry Tiggo 7 Pro Hybrid Max Drive 1.5</t>
   </si>
   <si>
@@ -190,7 +187,7 @@
     <t>GWM Haval H6 1.5 HEV</t>
   </si>
   <si>
-    <t>Hibrido</t>
+    <t>Híbrida</t>
   </si>
   <si>
     <t>Cherry Tiggo 7 Sport 1.5</t>
@@ -205,7 +202,7 @@
     <t>BD Song Plus DM-i 1.5</t>
   </si>
   <si>
-    <t>Hibrido plug-in</t>
+    <t>Híbrido plug-in</t>
   </si>
   <si>
     <t>GWM Haval H6 GT 1.5 PHEV</t>
@@ -235,7 +232,7 @@
     <t>Mitsubishi L200 Triton GLS 2.4 AT</t>
   </si>
   <si>
-    <t xml:space="preserve">Integral Temporaria </t>
+    <t>Integral temporária</t>
   </si>
   <si>
     <t>Fiat Titano Ranch 2.2</t>
@@ -1379,7 +1376,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>169990.0</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>279990.0</v>
@@ -1491,10 +1488,10 @@
         <v>6.3</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>25</v>
@@ -1526,7 +1523,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>214000.0</v>
@@ -1550,11 +1547,11 @@
         <v>7.9</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N16" s="1">
         <v>5.0</v>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>135000.0</v>
@@ -1609,10 +1606,10 @@
         <v>10.7</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>25</v>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <v>164990.0</v>
@@ -1671,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>25</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <v>210990.0</v>
@@ -1730,7 +1727,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>25</v>
@@ -1762,7 +1759,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>239800.0</v>
@@ -1786,11 +1783,11 @@
         <v>8.5</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" s="1">
         <v>5.0</v>
@@ -1821,7 +1818,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1">
         <v>319000.0</v>
@@ -1833,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1">
         <v>600.0</v>
@@ -1845,19 +1842,19 @@
         <v>4.8</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N21" s="1">
         <v>5.0</v>
@@ -1880,16 +1877,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>146990.0</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>36</v>
@@ -1907,7 +1904,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>25</v>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1">
         <v>302900.0</v>
@@ -1948,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>36</v>
@@ -1963,16 +1960,16 @@
         <v>9.4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>27</v>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>262990.0</v>
@@ -2007,7 +2004,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
@@ -2022,16 +2019,16 @@
         <v>10.3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>27</v>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>259990.0</v>
@@ -2066,7 +2063,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
@@ -2081,16 +2078,16 @@
         <v>12.4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>27</v>
@@ -2116,13 +2113,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>179990.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -2140,10 +2137,10 @@
         <v>9.0</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>25</v>
@@ -2175,13 +2172,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>321290.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>52</v>
@@ -2199,16 +2196,16 @@
         <v>7.0</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>27</v>
@@ -2234,19 +2231,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
         <v>225990.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1">
         <v>625.0</v>
@@ -2261,7 +2258,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>25</v>
@@ -2293,19 +2290,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
         <v>239990.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1">
         <v>493.0</v>
@@ -2317,10 +2314,10 @@
         <v>7.0</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>25</v>
@@ -2352,7 +2349,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <v>129990.0</v>
@@ -2364,7 +2361,7 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
         <v>546.0</v>
@@ -2376,10 +2373,10 @@
         <v>10.3</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>25</v>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
         <v>173390.0</v>
@@ -2423,7 +2420,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1">
         <v>519.0</v>
@@ -2438,7 +2435,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>25</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>184690.0</v>
@@ -2497,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>25</v>
@@ -2521,7 +2518,7 @@
         <v>28</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>42</v>
@@ -2529,7 +2526,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1">
         <v>189717.0</v>
@@ -2541,7 +2538,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1">
         <v>597.0</v>
@@ -2556,7 +2553,7 @@
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>25</v>
@@ -2580,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>42</v>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1">
         <v>155890.0</v>
@@ -2615,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>25</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1">
         <v>137990.0</v>
@@ -2656,7 +2653,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>22</v>
@@ -2674,7 +2671,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>25</v>
@@ -2706,7 +2703,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1">
         <v>125890.0</v>
@@ -2733,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>25</v>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <v>96110.0</v>
@@ -2792,7 +2789,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>25</v>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1">
         <v>158590.0</v>
@@ -2849,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>25</v>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
         <v>113790.0</v>
@@ -2908,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>25</v>
@@ -2940,16 +2937,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1">
         <v>151760.0</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>36</v>
@@ -2967,10 +2964,10 @@
         <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>26</v>
